--- a/notebooks/assets/test/keras2G0_1.xlsx
+++ b/notebooks/assets/test/keras2G0_1.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.387</v>
+        <v>2.235</v>
       </c>
       <c r="C2" t="n">
-        <v>1.371</v>
+        <v>2.09</v>
       </c>
       <c r="D2" t="n">
-        <v>1.106</v>
+        <v>1.773</v>
       </c>
       <c r="E2" t="n">
-        <v>0.758</v>
+        <v>1.321</v>
       </c>
       <c r="F2" t="n">
-        <v>1.641</v>
+        <v>2.371</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.931</v>
+        <v>6.359</v>
       </c>
       <c r="C3" t="n">
-        <v>3.285</v>
+        <v>7.11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.998</v>
+        <v>5.37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.964</v>
+        <v>2.588</v>
       </c>
       <c r="F3" t="n">
-        <v>4.277</v>
+        <v>8.487</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.212</v>
+        <v>18.203</v>
       </c>
       <c r="C4" t="n">
-        <v>15.444</v>
+        <v>15.45</v>
       </c>
       <c r="D4" t="n">
-        <v>18.041</v>
+        <v>18.059</v>
       </c>
       <c r="E4" t="n">
-        <v>12.88</v>
+        <v>12.974</v>
       </c>
       <c r="F4" t="n">
-        <v>30.329</v>
+        <v>30.217</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.37</v>
+        <v>18.5</v>
       </c>
       <c r="C5" t="n">
-        <v>15.533</v>
+        <v>15.768</v>
       </c>
       <c r="D5" t="n">
-        <v>17.745</v>
+        <v>18.055</v>
       </c>
       <c r="E5" t="n">
-        <v>13.11</v>
+        <v>13.627</v>
       </c>
       <c r="F5" t="n">
-        <v>30.407</v>
+        <v>31.057</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.584</v>
+        <v>0.47</v>
       </c>
       <c r="C6" t="n">
-        <v>0.697</v>
+        <v>0.556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.901</v>
+        <v>0.772</v>
       </c>
       <c r="E6" t="n">
-        <v>0.53</v>
+        <v>0.228</v>
       </c>
       <c r="F6" t="n">
-        <v>0.855</v>
+        <v>0.783</v>
       </c>
     </row>
   </sheetData>
